--- a/artfynd/A 26429-2025 artfynd.xlsx
+++ b/artfynd/A 26429-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY12"/>
+  <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1808,6 +1808,479 @@
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131108314</v>
+      </c>
+      <c r="B13" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Paljack, Mpd</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>601153</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6977380</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2025-1088</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>08:29</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>08:29</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Anders Forsberg</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>131108277</v>
+      </c>
+      <c r="B14" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Paljack, Mpd</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>601141</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6977358</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>2025-1083</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Anders Forsberg</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131108166</v>
+      </c>
+      <c r="B15" t="n">
+        <v>80348</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Paljack, Mpd</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>601219</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6977464</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>2025-1054</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>09:14</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>09:14</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Elsa Fogelström, Anders Forsberg</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131108169</v>
+      </c>
+      <c r="B16" t="n">
+        <v>91808</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Paljack, Mpd</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>601162</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6977363</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>2025-1089</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Anders Forsberg</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 26429-2025 artfynd.xlsx
+++ b/artfynd/A 26429-2025 artfynd.xlsx
@@ -1810,10 +1810,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131108314</v>
+        <v>131108277</v>
       </c>
       <c r="B13" t="n">
-        <v>91808</v>
+        <v>57881</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1821,21 +1821,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>601153</v>
+        <v>601141</v>
       </c>
       <c r="R13" t="n">
-        <v>6977380</v>
+        <v>6977358</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2025-1088</t>
+          <t>2025-1083</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1926,10 +1926,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131108277</v>
+        <v>131108314</v>
       </c>
       <c r="B14" t="n">
-        <v>57881</v>
+        <v>91808</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1937,21 +1937,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>601141</v>
+        <v>601153</v>
       </c>
       <c r="R14" t="n">
-        <v>6977358</v>
+        <v>6977380</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2025-1083</t>
+          <t>2025-1088</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="AD14" t="b">

--- a/artfynd/A 26429-2025 artfynd.xlsx
+++ b/artfynd/A 26429-2025 artfynd.xlsx
@@ -1810,10 +1810,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131108277</v>
+        <v>131108314</v>
       </c>
       <c r="B13" t="n">
-        <v>57881</v>
+        <v>91808</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1821,21 +1821,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>601141</v>
+        <v>601153</v>
       </c>
       <c r="R13" t="n">
-        <v>6977358</v>
+        <v>6977380</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2025-1083</t>
+          <t>2025-1088</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1926,10 +1926,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131108314</v>
+        <v>131108277</v>
       </c>
       <c r="B14" t="n">
-        <v>91808</v>
+        <v>57881</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1937,21 +1937,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>601153</v>
+        <v>601141</v>
       </c>
       <c r="R14" t="n">
-        <v>6977380</v>
+        <v>6977358</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2025-1088</t>
+          <t>2025-1083</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="AD14" t="b">
